--- a/文档/个人文档/李安妮/10.项目总结报告.xlsx
+++ b/文档/个人文档/李安妮/10.项目总结报告.xlsx
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -447,6 +447,9 @@
     <t>组长</t>
   </si>
   <si>
+    <t>10day</t>
+  </si>
+  <si>
     <t>何青杏</t>
   </si>
   <si>
@@ -674,12 +677,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="mmm"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="mmm"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -884,15 +887,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,25 +920,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -935,22 +933,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,17 +950,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -986,8 +993,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1003,11 +1025,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="36"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1019,25 +1048,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
+      <name val="楷体_GB2312"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1046,24 +1058,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="36"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
-      <name val="楷体_GB2312"/>
+      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1099,7 +1102,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,13 +1144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,19 +1156,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,13 +1198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,31 +1222,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,13 +1252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,37 +1264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,13 +1276,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,21 +1358,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1384,11 +1372,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,6 +1398,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1437,6 +1440,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1451,61 +1465,53 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1514,136 +1520,133 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="15" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -22113,7 +22116,7 @@
   <dimension ref="B1:I44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:I9"/>
+      <selection activeCell="H13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -22252,15 +22255,17 @@
         <v>42958</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="21"/>
+      <c r="H9" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="I9" s="43"/>
     </row>
     <row r="10" ht="16.9" customHeight="1" spans="2:9">
       <c r="B10" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="19">
         <v>42948</v>
@@ -22270,15 +22275,17 @@
         <v>42958</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="21"/>
+      <c r="H10" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="I10" s="43"/>
     </row>
     <row r="11" ht="16.9" customHeight="1" spans="2:9">
       <c r="B11" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="19">
         <v>42948</v>
@@ -22288,15 +22295,17 @@
         <v>42958</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="21"/>
+      <c r="H11" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="I11" s="43"/>
     </row>
     <row r="12" ht="16.9" customHeight="1" spans="2:9">
       <c r="B12" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="19">
         <v>42948</v>
@@ -22306,15 +22315,17 @@
         <v>42958</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="21"/>
+      <c r="H12" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="I12" s="43"/>
     </row>
     <row r="13" ht="16.9" customHeight="1" spans="2:9">
       <c r="B13" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="19">
         <v>42948</v>
@@ -22324,15 +22335,17 @@
         <v>42958</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="21"/>
+      <c r="H13" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="I13" s="43"/>
     </row>
     <row r="14" ht="16.9" customHeight="1" spans="2:9">
       <c r="B14" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="19">
         <v>42948</v>
@@ -22342,7 +22355,9 @@
         <v>42958</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="21"/>
+      <c r="H14" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="I14" s="43"/>
     </row>
     <row r="15" ht="16.9" customHeight="1" spans="2:9">
@@ -22357,11 +22372,11 @@
     </row>
     <row r="16" ht="16.9" customHeight="1" spans="2:9">
       <c r="B16" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
@@ -22421,7 +22436,7 @@
     </row>
     <row r="22" ht="16.9" customHeight="1" spans="2:9">
       <c r="B22" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -22469,7 +22484,7 @@
     </row>
     <row r="26" ht="16.9" customHeight="1" spans="2:9">
       <c r="B26" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -22481,25 +22496,25 @@
     </row>
     <row r="27" ht="16.9" customHeight="1" spans="2:9">
       <c r="B27" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G27" s="34"/>
       <c r="H27" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I27" s="34"/>
     </row>
     <row r="28" ht="16.9" customHeight="1" spans="2:9">
       <c r="B28" s="35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="35"/>
@@ -22511,7 +22526,7 @@
     </row>
     <row r="29" ht="16.9" customHeight="1" spans="2:9">
       <c r="B29" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="35"/>
@@ -22523,7 +22538,7 @@
     </row>
     <row r="30" ht="16.9" customHeight="1" spans="2:9">
       <c r="B30" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="35"/>
@@ -22535,7 +22550,7 @@
     </row>
     <row r="31" ht="16.9" customHeight="1" spans="2:9">
       <c r="B31" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="35"/>
@@ -22547,7 +22562,7 @@
     </row>
     <row r="32" ht="16.9" customHeight="1" spans="2:9">
       <c r="B32" s="37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -22559,10 +22574,10 @@
     </row>
     <row r="33" ht="16.9" customHeight="1" spans="2:9">
       <c r="B33" s="39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
@@ -22583,10 +22598,10 @@
     </row>
     <row r="35" ht="16.9" customHeight="1" spans="2:9">
       <c r="B35" s="39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
@@ -22607,10 +22622,10 @@
     </row>
     <row r="37" ht="16.9" customHeight="1" spans="2:9">
       <c r="B37" s="39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
@@ -22631,10 +22646,10 @@
     </row>
     <row r="39" ht="16.9" customHeight="1" spans="2:9">
       <c r="B39" s="39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
@@ -22655,10 +22670,10 @@
     </row>
     <row r="41" ht="16.9" customHeight="1" spans="2:9">
       <c r="B41" s="39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
@@ -22679,10 +22694,10 @@
     </row>
     <row r="43" ht="16.9" customHeight="1" spans="2:9">
       <c r="B43" s="39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D43" s="40"/>
       <c r="E43" s="40"/>
@@ -22794,23 +22809,23 @@
     <mergeCell ref="C44:I44"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28:I31">
-      <formula1>"达成,未达成"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
       <formula1>"变更频繁,变更可控"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>"严重失控,失控,基本受控,受控"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40 B42">
+      <formula1>"超出预想,估计范围内"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
       <formula1>"延期频繁,基本按期,进度提前"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40 B42">
-      <formula1>"超出预想,估计范围内"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28:I31">
+      <formula1>"达成,未达成"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
       <formula1>"资源缺乏,资源充足,资源冗余"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>"严重失控,失控,基本受控,受控"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/文档/个人文档/李安妮/10.项目总结报告.xlsx
+++ b/文档/个人文档/李安妮/10.项目总结报告.xlsx
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -411,7 +411,13 @@
     <t>项目组名称</t>
   </si>
   <si>
+    <t>GDGM422</t>
+  </si>
+  <si>
     <t>实训经理</t>
+  </si>
+  <si>
+    <t>李辉</t>
   </si>
   <si>
     <t>项目负责人</t>
@@ -677,15 +683,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="mmm"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="64">
     <font>
@@ -887,14 +893,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -906,51 +907,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -964,45 +929,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,11 +969,98 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1040,33 +1071,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="楷体_GB2312"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1102,7 +1108,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,37 +1120,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,31 +1180,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,19 +1210,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,19 +1228,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,43 +1276,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,16 +1364,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1383,6 +1398,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1413,35 +1463,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1450,205 +1471,190 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="15" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1675,6 +1681,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -20869,383 +20878,383 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="108" customWidth="1"/>
-    <col min="2" max="2" width="9" style="108"/>
-    <col min="3" max="3" width="8.375" style="108" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="108"/>
+    <col min="1" max="1" width="7.5" style="109" customWidth="1"/>
+    <col min="2" max="2" width="9" style="109"/>
+    <col min="3" max="3" width="8.375" style="109" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="109"/>
   </cols>
   <sheetData>
-    <row r="1" s="107" customFormat="1" ht="22.5" spans="1:1">
-      <c r="A1" s="66"/>
+    <row r="1" s="108" customFormat="1" ht="22.5" spans="1:1">
+      <c r="A1" s="67"/>
     </row>
-    <row r="2" s="107" customFormat="1" ht="22.5" spans="1:1">
-      <c r="A2" s="66" t="s">
+    <row r="2" s="108" customFormat="1" ht="22.5" spans="1:1">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="107" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A3" s="69" t="s">
+    <row r="3" s="108" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A3" s="70" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="107" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A4" s="109"/>
+    <row r="4" s="108" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A4" s="110"/>
     </row>
-    <row r="5" s="107" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A5" s="109"/>
+    <row r="5" s="108" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A5" s="110"/>
     </row>
-    <row r="6" s="107" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A6" s="109"/>
+    <row r="6" s="108" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A6" s="110"/>
     </row>
-    <row r="7" s="107" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A7" s="109"/>
+    <row r="7" s="108" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A7" s="110"/>
     </row>
-    <row r="8" s="107" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A8" s="109"/>
+    <row r="8" s="108" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A8" s="110"/>
     </row>
-    <row r="9" s="107" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A9" s="109"/>
+    <row r="9" s="108" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A9" s="110"/>
     </row>
-    <row r="10" s="107" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A10" s="109"/>
+    <row r="10" s="108" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A10" s="110"/>
     </row>
-    <row r="11" s="107" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A11" s="109"/>
+    <row r="11" s="108" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A11" s="110"/>
     </row>
-    <row r="12" s="107" customFormat="1" ht="18.75" spans="1:3">
-      <c r="A12" s="109"/>
-      <c r="C12" s="110"/>
+    <row r="12" s="108" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A12" s="110"/>
+      <c r="C12" s="111"/>
     </row>
-    <row r="13" s="107" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A13" s="109"/>
+    <row r="13" s="108" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A13" s="110"/>
     </row>
-    <row r="14" s="107" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A14" s="111"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
+    <row r="14" s="108" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
     </row>
-    <row r="15" s="107" customFormat="1" ht="51.75" customHeight="1" spans="1:9">
-      <c r="A15" s="113" t="s">
+    <row r="15" s="108" customFormat="1" ht="51.75" customHeight="1" spans="1:9">
+      <c r="A15" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
     </row>
-    <row r="16" s="107" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A16" s="115"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
+    <row r="16" s="108" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A16" s="116"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
     </row>
-    <row r="17" s="107" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A17" s="116" t="s">
+    <row r="17" s="108" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A17" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
     </row>
-    <row r="18" s="107" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A18" s="79">
+    <row r="18" s="108" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A18" s="80">
         <v>40126</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
     </row>
-    <row r="19" s="107" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A19" s="111"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
+    <row r="19" s="108" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A19" s="112"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
     </row>
-    <row r="20" s="107" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A20" s="111"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
+    <row r="20" s="108" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
     </row>
-    <row r="21" s="107" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A21" s="111"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
+    <row r="21" s="108" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A21" s="112"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
     </row>
-    <row r="22" s="107" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A22" s="111"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
+    <row r="22" s="108" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
     </row>
-    <row r="23" s="107" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A23" s="111"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
+    <row r="23" s="108" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A23" s="112"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
     </row>
-    <row r="24" s="107" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="111"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
+    <row r="24" s="108" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
     </row>
-    <row r="25" s="107" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="111"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
+    <row r="25" s="108" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A25" s="112"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
     </row>
-    <row r="26" s="107" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="111"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
+    <row r="26" s="108" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A26" s="112"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
     </row>
-    <row r="27" s="107" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="111"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
+    <row r="27" s="108" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A27" s="112"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
     </row>
-    <row r="28" s="107" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="111"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
+    <row r="28" s="108" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A28" s="112"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
     </row>
-    <row r="29" s="107" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A29" s="111"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
+    <row r="29" s="108" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A29" s="112"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
     </row>
-    <row r="30" s="107" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A30" s="111"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
+    <row r="30" s="108" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A30" s="112"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
     </row>
-    <row r="31" s="107" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="111"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
+    <row r="31" s="108" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A31" s="112"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
     </row>
-    <row r="32" s="107" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A32" s="111"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
+    <row r="32" s="108" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A32" s="112"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
     </row>
-    <row r="33" s="107" customFormat="1" ht="19.5" spans="1:10">
-      <c r="A33" s="117" t="s">
+    <row r="33" s="108" customFormat="1" ht="19.5" spans="1:10">
+      <c r="A33" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="122"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="123"/>
     </row>
-    <row r="34" s="107" customFormat="1" ht="19.5" spans="1:10">
-      <c r="A34" s="118" t="s">
+    <row r="34" s="108" customFormat="1" ht="19.5" spans="1:10">
+      <c r="A34" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="122"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="123"/>
     </row>
-    <row r="35" s="107" customFormat="1" spans="1:10">
-      <c r="A35" s="119"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="122"/>
+    <row r="35" s="108" customFormat="1" spans="1:10">
+      <c r="A35" s="120"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="123"/>
     </row>
-    <row r="36" s="107" customFormat="1" spans="1:9">
-      <c r="A36" s="112"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
+    <row r="36" s="108" customFormat="1" spans="1:9">
+      <c r="A36" s="113"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
     </row>
-    <row r="37" s="107" customFormat="1"/>
-    <row r="38" s="107" customFormat="1"/>
-    <row r="39" s="107" customFormat="1"/>
-    <row r="40" s="107" customFormat="1"/>
-    <row r="41" s="107" customFormat="1"/>
+    <row r="37" s="108" customFormat="1"/>
+    <row r="38" s="108" customFormat="1"/>
+    <row r="39" s="108" customFormat="1"/>
+    <row r="40" s="108" customFormat="1"/>
+    <row r="41" s="108" customFormat="1"/>
     <row r="58" spans="1:1">
-      <c r="A58" s="120"/>
+      <c r="A58" s="121"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="121"/>
+      <c r="A59" s="122"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="123"/>
+      <c r="A101" s="124"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="123"/>
+      <c r="A102" s="124"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="123"/>
+      <c r="A103" s="124"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="123"/>
+      <c r="A104" s="124"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="123"/>
+      <c r="A105" s="124"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="123"/>
+      <c r="A106" s="124"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="123"/>
+      <c r="A107" s="124"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="123"/>
+      <c r="A108" s="124"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="123"/>
+      <c r="A109" s="124"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="123"/>
+      <c r="A110" s="124"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="123"/>
+      <c r="A111" s="124"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="123"/>
+      <c r="A112" s="124"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="123"/>
+      <c r="A113" s="124"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="123"/>
+      <c r="A114" s="124"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="123"/>
+      <c r="A115" s="124"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="123"/>
+      <c r="A116" s="124"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="123"/>
+      <c r="A117" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21268,208 +21277,208 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="95" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="95" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="95" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="95" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="95"/>
+    <col min="1" max="1" width="10.875" style="96" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="96" customWidth="1"/>
+    <col min="3" max="3" width="46.25" style="96" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="96" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="96"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:5">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="99"/>
     </row>
     <row r="2" ht="19.9" customHeight="1" spans="1:4">
-      <c r="A2" s="99"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="94" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A4" s="101">
+    <row r="4" s="95" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A4" s="102">
         <v>1</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="103">
+      <c r="D4" s="104">
         <v>40126</v>
       </c>
     </row>
-    <row r="5" s="94" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
+    <row r="5" s="95" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
     </row>
-    <row r="6" s="94" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
+    <row r="6" s="95" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
     </row>
-    <row r="7" s="94" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
+    <row r="7" s="95" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
     </row>
-    <row r="8" s="94" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
+    <row r="8" s="95" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
     </row>
-    <row r="9" s="94" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
+    <row r="9" s="95" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="104"/>
     </row>
-    <row r="10" s="94" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A10" s="101"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
+    <row r="10" s="95" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A10" s="102"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="104"/>
     </row>
-    <row r="11" s="94" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A11" s="101"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+    <row r="11" s="95" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A11" s="102"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
     </row>
-    <row r="12" s="94" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A12" s="101"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
+    <row r="12" s="95" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A12" s="102"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="104"/>
     </row>
-    <row r="13" s="94" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A13" s="101"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+    <row r="13" s="95" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A13" s="102"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
     </row>
-    <row r="14" s="94" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A14" s="101"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+    <row r="14" s="95" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A14" s="102"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
     </row>
-    <row r="15" s="94" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A15" s="101"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+    <row r="15" s="95" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A15" s="102"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
     </row>
-    <row r="16" s="94" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A16" s="101"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
+    <row r="16" s="95" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A16" s="102"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="104"/>
     </row>
-    <row r="17" s="94" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A17" s="101"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
+    <row r="17" s="95" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A17" s="102"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
     </row>
-    <row r="18" s="94" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A18" s="101"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="103"/>
+    <row r="18" s="95" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A18" s="102"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="104"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A19" s="101"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="103"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="104"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A20" s="101"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="103"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="104"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A21" s="101"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="103"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="104"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="106"/>
+      <c r="A95" s="107"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="106"/>
+      <c r="A96" s="107"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="106"/>
+      <c r="A97" s="107"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="106"/>
+      <c r="A98" s="107"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="106"/>
+      <c r="A99" s="107"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="106"/>
+      <c r="A100" s="107"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="106"/>
+      <c r="A101" s="107"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="106"/>
+      <c r="A102" s="107"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="106"/>
+      <c r="A103" s="107"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="106"/>
+      <c r="A104" s="107"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="106"/>
+      <c r="A105" s="107"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="106"/>
+      <c r="A106" s="107"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="106"/>
+      <c r="A107" s="107"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="106"/>
+      <c r="A108" s="107"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="106"/>
+      <c r="A109" s="107"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="106"/>
+      <c r="A110" s="107"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="106"/>
+      <c r="A111" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21488,327 +21497,327 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="64" customWidth="1"/>
-    <col min="2" max="4" width="9.625" style="64" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="64" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="64" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="64"/>
+    <col min="1" max="1" width="9.25" style="65" customWidth="1"/>
+    <col min="2" max="4" width="9.625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="65" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="65" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="65" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" s="59" customFormat="1" ht="22.5" spans="1:1">
-      <c r="A1" s="65"/>
+    <row r="1" s="60" customFormat="1" ht="22.5" spans="1:1">
+      <c r="A1" s="66"/>
     </row>
-    <row r="2" s="59" customFormat="1" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A2" s="66" t="s">
+    <row r="2" s="60" customFormat="1" ht="25.5" customHeight="1" spans="1:1">
+      <c r="A2" s="67" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="60" customFormat="1" ht="22.5" spans="1:9">
-      <c r="A3" s="67" t="s">
+    <row r="3" s="61" customFormat="1" ht="22.5" spans="1:9">
+      <c r="A3" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
     </row>
-    <row r="4" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A4" s="69" t="s">
+    <row r="4" s="60" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A4" s="70" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A5" s="70"/>
+    <row r="5" s="60" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A5" s="71"/>
     </row>
-    <row r="6" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A6" s="70"/>
+    <row r="6" s="60" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A6" s="71"/>
     </row>
-    <row r="7" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A7" s="70"/>
+    <row r="7" s="60" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A7" s="71"/>
     </row>
-    <row r="8" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A8" s="70"/>
+    <row r="8" s="60" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A8" s="71"/>
     </row>
-    <row r="9" s="59" customFormat="1" ht="9.75" customHeight="1" spans="1:1">
-      <c r="A9" s="70"/>
+    <row r="9" s="60" customFormat="1" ht="9.75" customHeight="1" spans="1:1">
+      <c r="A9" s="71"/>
     </row>
-    <row r="10" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A10" s="70"/>
+    <row r="10" s="60" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A10" s="71"/>
     </row>
-    <row r="11" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A11" s="70"/>
+    <row r="11" s="60" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A11" s="71"/>
     </row>
-    <row r="12" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A12" s="70"/>
+    <row r="12" s="60" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A12" s="71"/>
     </row>
-    <row r="13" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A13" s="70"/>
+    <row r="13" s="60" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A13" s="71"/>
     </row>
-    <row r="14" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A14" s="70"/>
+    <row r="14" s="60" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A14" s="71"/>
     </row>
-    <row r="15" s="59" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
+    <row r="15" s="60" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A15" s="72"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
     </row>
-    <row r="16" s="61" customFormat="1" ht="46.5" spans="1:8">
-      <c r="A16" s="73" t="s">
+    <row r="16" s="62" customFormat="1" ht="46.5" spans="1:8">
+      <c r="A16" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
     </row>
-    <row r="17" s="61" customFormat="1" spans="1:8">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
+    <row r="17" s="62" customFormat="1" spans="1:8">
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
     </row>
-    <row r="18" s="59" customFormat="1" ht="53.25" spans="1:8">
-      <c r="A18" s="77" t="s">
+    <row r="18" s="60" customFormat="1" ht="53.25" spans="1:8">
+      <c r="A18" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
     </row>
-    <row r="19" s="59" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
+    <row r="19" s="60" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A19" s="72"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
     </row>
-    <row r="20" s="59" customFormat="1" ht="45.75" spans="1:8">
-      <c r="A20" s="78"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
+    <row r="20" s="60" customFormat="1" ht="45.75" spans="1:8">
+      <c r="A20" s="79"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
     </row>
-    <row r="21" s="59" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A21" s="79"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
+    <row r="21" s="60" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A21" s="80"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
     </row>
-    <row r="22" s="59" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
-      <c r="A22" s="80" t="s">
+    <row r="22" s="60" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
+      <c r="A22" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
     </row>
-    <row r="23" s="59" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A23" s="71"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
+    <row r="23" s="60" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A23" s="72"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
     </row>
-    <row r="24" s="59" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
+    <row r="24" s="60" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A24" s="72"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
     </row>
-    <row r="25" s="59" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
+    <row r="25" s="60" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A25" s="72"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
     </row>
-    <row r="26" s="59" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+    <row r="26" s="60" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
     </row>
-    <row r="27" s="59" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A27" s="71"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
+    <row r="27" s="60" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A27" s="72"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
     </row>
-    <row r="28" s="59" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A28" s="71"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+    <row r="28" s="60" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A28" s="72"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
     </row>
-    <row r="29" s="62" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
-      <c r="A29" s="82" t="s">
+    <row r="29" s="63" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
+      <c r="A29" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
     </row>
-    <row r="30" s="62" customFormat="1" spans="1:8">
-      <c r="A30" s="84"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
+    <row r="30" s="63" customFormat="1" spans="1:8">
+      <c r="A30" s="85"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
     </row>
-    <row r="31" s="62" customFormat="1" spans="1:8">
-      <c r="A31" s="84"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
+    <row r="31" s="63" customFormat="1" spans="1:8">
+      <c r="A31" s="85"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
     </row>
-    <row r="32" s="62" customFormat="1" spans="1:8">
-      <c r="A32" s="84"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
+    <row r="32" s="63" customFormat="1" spans="1:8">
+      <c r="A32" s="85"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
     </row>
-    <row r="33" s="63" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A33" s="86" t="s">
+    <row r="33" s="64" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A33" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="86" t="s">
+      <c r="B33" s="88"/>
+      <c r="C33" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="87"/>
-      <c r="E33" s="86" t="s">
+      <c r="D33" s="88"/>
+      <c r="E33" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="87"/>
-      <c r="G33" s="88" t="s">
+      <c r="F33" s="88"/>
+      <c r="G33" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="87"/>
+      <c r="H33" s="88"/>
     </row>
-    <row r="34" s="63" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A34" s="86" t="s">
+    <row r="34" s="64" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A34" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="86" t="s">
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
     </row>
-    <row r="35" s="59" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A35" s="71"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
+    <row r="35" s="60" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A35" s="72"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
     </row>
-    <row r="36" s="59" customFormat="1" ht="19.5" spans="1:8">
-      <c r="A36" s="90"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
+    <row r="36" s="60" customFormat="1" ht="19.5" spans="1:8">
+      <c r="A36" s="91"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
     </row>
-    <row r="37" s="59" customFormat="1" ht="19.5" spans="1:8">
-      <c r="A37" s="91"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
+    <row r="37" s="60" customFormat="1" ht="19.5" spans="1:8">
+      <c r="A37" s="92"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
     </row>
-    <row r="38" s="59" customFormat="1"/>
+    <row r="38" s="60" customFormat="1"/>
     <row r="55" ht="14.25" spans="1:1">
-      <c r="A55" s="92"/>
+      <c r="A55" s="93"/>
     </row>
     <row r="56" ht="14.25" spans="1:1">
-      <c r="A56" s="93"/>
+      <c r="A56" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -21833,273 +21842,273 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="48" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="49" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="48" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="48" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="48" customWidth="1"/>
-    <col min="7" max="7" width="33.25" style="48" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="48"/>
+    <col min="1" max="1" width="2.875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="49" customWidth="1"/>
+    <col min="4" max="5" width="8.75" style="49" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="49" customWidth="1"/>
+    <col min="7" max="7" width="33.25" style="49" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="2:7">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" ht="9" customHeight="1" spans="2:7">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" s="47" customFormat="1" spans="2:7">
-      <c r="B4" s="54">
+    <row r="4" s="48" customFormat="1" spans="2:7">
+      <c r="B4" s="55">
         <v>1</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
     </row>
-    <row r="5" s="47" customFormat="1" spans="2:7">
-      <c r="B5" s="54">
+    <row r="5" s="48" customFormat="1" spans="2:7">
+      <c r="B5" s="55">
         <v>2</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
     </row>
-    <row r="6" s="47" customFormat="1" spans="2:7">
-      <c r="B6" s="54">
+    <row r="6" s="48" customFormat="1" spans="2:7">
+      <c r="B6" s="55">
         <v>3</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
     </row>
-    <row r="7" s="47" customFormat="1" spans="2:7">
-      <c r="B7" s="54">
+    <row r="7" s="48" customFormat="1" spans="2:7">
+      <c r="B7" s="55">
         <v>4</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
     </row>
-    <row r="8" s="47" customFormat="1" spans="2:7">
-      <c r="B8" s="54">
+    <row r="8" s="48" customFormat="1" spans="2:7">
+      <c r="B8" s="55">
         <v>5</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
     </row>
-    <row r="9" s="47" customFormat="1" spans="2:7">
-      <c r="B9" s="54">
+    <row r="9" s="48" customFormat="1" spans="2:7">
+      <c r="B9" s="55">
         <v>6</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
     </row>
-    <row r="10" s="47" customFormat="1" spans="2:7">
-      <c r="B10" s="54">
+    <row r="10" s="48" customFormat="1" spans="2:7">
+      <c r="B10" s="55">
         <v>7</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
     </row>
-    <row r="11" s="47" customFormat="1" spans="2:7">
-      <c r="B11" s="54">
+    <row r="11" s="48" customFormat="1" spans="2:7">
+      <c r="B11" s="55">
         <v>8</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
     </row>
-    <row r="12" s="47" customFormat="1" spans="2:7">
-      <c r="B12" s="54">
+    <row r="12" s="48" customFormat="1" spans="2:7">
+      <c r="B12" s="55">
         <v>9</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
     </row>
-    <row r="13" s="47" customFormat="1" spans="2:7">
-      <c r="B13" s="54">
+    <row r="13" s="48" customFormat="1" spans="2:7">
+      <c r="B13" s="55">
         <v>10</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
     </row>
-    <row r="14" s="47" customFormat="1" spans="2:7">
-      <c r="B14" s="54">
+    <row r="14" s="48" customFormat="1" spans="2:7">
+      <c r="B14" s="55">
         <v>11</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
     </row>
-    <row r="15" s="47" customFormat="1" spans="2:7">
-      <c r="B15" s="54">
+    <row r="15" s="48" customFormat="1" spans="2:7">
+      <c r="B15" s="55">
         <v>12</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
     </row>
-    <row r="16" s="47" customFormat="1" spans="2:7">
-      <c r="B16" s="54">
+    <row r="16" s="48" customFormat="1" spans="2:7">
+      <c r="B16" s="55">
         <v>13</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
     </row>
-    <row r="17" s="47" customFormat="1" spans="2:7">
-      <c r="B17" s="54">
+    <row r="17" s="48" customFormat="1" spans="2:7">
+      <c r="B17" s="55">
         <v>14</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
     </row>
-    <row r="18" s="47" customFormat="1" spans="2:7">
-      <c r="B18" s="54">
+    <row r="18" s="48" customFormat="1" spans="2:7">
+      <c r="B18" s="55">
         <v>15</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
     </row>
-    <row r="19" s="47" customFormat="1" spans="2:7">
-      <c r="B19" s="54">
+    <row r="19" s="48" customFormat="1" spans="2:7">
+      <c r="B19" s="55">
         <v>16</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
     </row>
-    <row r="20" s="47" customFormat="1" spans="2:7">
-      <c r="B20" s="54">
+    <row r="20" s="48" customFormat="1" spans="2:7">
+      <c r="B20" s="55">
         <v>17</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
     </row>
-    <row r="21" s="47" customFormat="1" spans="2:7">
-      <c r="B21" s="54">
+    <row r="21" s="48" customFormat="1" spans="2:7">
+      <c r="B21" s="55">
         <v>18</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
     </row>
-    <row r="22" s="47" customFormat="1" spans="2:7">
-      <c r="B22" s="54">
+    <row r="22" s="48" customFormat="1" spans="2:7">
+      <c r="B22" s="55">
         <v>19</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
     </row>
-    <row r="23" s="47" customFormat="1" spans="2:7">
-      <c r="B23" s="54">
+    <row r="23" s="48" customFormat="1" spans="2:7">
+      <c r="B23" s="55">
         <v>20</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="57"/>
+      <c r="C24" s="58"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="58"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="57"/>
+      <c r="C26" s="58"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="57"/>
+      <c r="C27" s="58"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="57"/>
+      <c r="C28" s="58"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="57"/>
+      <c r="C29" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22116,7 +22125,7 @@
   <dimension ref="B1:I44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:I13"/>
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -22171,320 +22180,324 @@
         <v>35</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" ht="16.9" customHeight="1" spans="2:9">
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" ht="16.9" customHeight="1" spans="2:9">
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>42948</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <v>42958</v>
       </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B7" s="11" t="s">
-        <v>41</v>
+      <c r="B7" s="12" t="s">
+        <v>43</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="16"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B9" s="18" t="s">
-        <v>38</v>
+      <c r="B9" s="19" t="s">
+        <v>40</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>47</v>
+      <c r="C9" s="19" t="s">
+        <v>49</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="20">
         <v>42948</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="10">
+      <c r="E9" s="21"/>
+      <c r="F9" s="11">
         <v>42958</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="21" t="s">
-        <v>48</v>
+      <c r="H9" s="22" t="s">
+        <v>50</v>
       </c>
-      <c r="I9" s="43"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B10" s="18" t="s">
-        <v>49</v>
+      <c r="B10" s="19" t="s">
+        <v>51</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>50</v>
+      <c r="C10" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="20">
         <v>42948</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="10">
+      <c r="E10" s="21"/>
+      <c r="F10" s="11">
         <v>42958</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="21" t="s">
-        <v>48</v>
+      <c r="H10" s="22" t="s">
+        <v>50</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B11" s="18" t="s">
-        <v>51</v>
+      <c r="B11" s="19" t="s">
+        <v>53</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>50</v>
+      <c r="C11" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="20">
         <v>42948</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="10">
+      <c r="E11" s="21"/>
+      <c r="F11" s="11">
         <v>42958</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="21" t="s">
-        <v>48</v>
+      <c r="H11" s="22" t="s">
+        <v>50</v>
       </c>
-      <c r="I11" s="43"/>
+      <c r="I11" s="44"/>
     </row>
     <row r="12" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="D12" s="20">
         <v>42948</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10">
+      <c r="E12" s="21"/>
+      <c r="F12" s="11">
         <v>42958</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="21" t="s">
-        <v>48</v>
+      <c r="H12" s="22" t="s">
+        <v>50</v>
       </c>
-      <c r="I12" s="43"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B13" s="18" t="s">
-        <v>53</v>
+      <c r="B13" s="19" t="s">
+        <v>55</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>50</v>
+      <c r="C13" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="20">
         <v>42948</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="10">
+      <c r="E13" s="21"/>
+      <c r="F13" s="11">
         <v>42958</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="21" t="s">
-        <v>48</v>
+      <c r="H13" s="22" t="s">
+        <v>50</v>
       </c>
-      <c r="I13" s="43"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B14" s="18" t="s">
-        <v>54</v>
+      <c r="B14" s="19" t="s">
+        <v>56</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>50</v>
+      <c r="C14" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="20">
         <v>42948</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="10">
+      <c r="E14" s="21"/>
+      <c r="F14" s="11">
         <v>42958</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="21" t="s">
-        <v>48</v>
+      <c r="H14" s="22" t="s">
+        <v>50</v>
       </c>
-      <c r="I14" s="43"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" ht="16.9" customHeight="1" spans="2:9">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="43"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B16" s="25" t="s">
-        <v>55</v>
+      <c r="B16" s="26" t="s">
+        <v>57</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25" t="s">
-        <v>56</v>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
+        <v>58</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B22" s="29" t="s">
-        <v>57</v>
+      <c r="B22" s="30" t="s">
+        <v>59</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="44"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B23" s="31">
+      <c r="B23" s="32">
         <v>1</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="45"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B24" s="31">
+      <c r="B24" s="32">
         <v>2</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="45"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B25" s="31">
+      <c r="B25" s="32">
         <v>3</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="45"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="46"/>
     </row>
     <row r="26" ht="16.9" customHeight="1" spans="2:9">
       <c r="B26" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -22495,226 +22508,226 @@
       <c r="I26" s="5"/>
     </row>
     <row r="27" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B27" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="17" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="35"/>
     </row>
     <row r="28" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B28" s="35" t="s">
-        <v>63</v>
+      <c r="B28" s="36" t="s">
+        <v>65</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
     </row>
     <row r="29" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B29" s="35" t="s">
-        <v>64</v>
+      <c r="B29" s="36" t="s">
+        <v>66</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
     </row>
     <row r="30" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B30" s="35" t="s">
-        <v>65</v>
+      <c r="B30" s="36" t="s">
+        <v>67</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
     </row>
     <row r="31" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B31" s="35" t="s">
-        <v>66</v>
+      <c r="B31" s="36" t="s">
+        <v>68</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
     </row>
     <row r="32" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B32" s="37" t="s">
-        <v>67</v>
+      <c r="B32" s="38" t="s">
+        <v>69</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="46"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="47"/>
     </row>
     <row r="33" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B33" s="39" t="s">
-        <v>68</v>
+      <c r="B33" s="40" t="s">
+        <v>70</v>
       </c>
-      <c r="C33" s="40" t="s">
-        <v>69</v>
+      <c r="C33" s="41" t="s">
+        <v>71</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
     </row>
     <row r="34" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
     </row>
     <row r="35" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B35" s="39" t="s">
-        <v>70</v>
+      <c r="B35" s="40" t="s">
+        <v>72</v>
       </c>
-      <c r="C35" s="40" t="s">
-        <v>69</v>
+      <c r="C35" s="41" t="s">
+        <v>71</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
     </row>
     <row r="36" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
     </row>
     <row r="37" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
     </row>
     <row r="38" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
     </row>
     <row r="39" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B39" s="39" t="s">
-        <v>72</v>
+      <c r="B39" s="40" t="s">
+        <v>74</v>
       </c>
-      <c r="C39" s="40" t="s">
-        <v>69</v>
+      <c r="C39" s="41" t="s">
+        <v>71</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
     </row>
     <row r="40" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
     </row>
     <row r="41" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B41" s="39" t="s">
-        <v>73</v>
+      <c r="B41" s="40" t="s">
+        <v>75</v>
       </c>
-      <c r="C41" s="40" t="s">
-        <v>69</v>
+      <c r="C41" s="41" t="s">
+        <v>71</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
     </row>
     <row r="42" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
     </row>
     <row r="43" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B43" s="39" t="s">
-        <v>74</v>
+      <c r="B43" s="40" t="s">
+        <v>76</v>
       </c>
-      <c r="C43" s="40" t="s">
-        <v>69</v>
+      <c r="C43" s="41" t="s">
+        <v>71</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
     </row>
     <row r="44" ht="16.9" customHeight="1" spans="2:9">
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="89">
@@ -22809,23 +22822,23 @@
     <mergeCell ref="C44:I44"/>
   </mergeCells>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
+      <formula1>"资源缺乏,资源充足,资源冗余"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
       <formula1>"变更频繁,变更可控"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>"延期频繁,基本按期,进度提前"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>"严重失控,失控,基本受控,受控"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40 B42">
       <formula1>"超出预想,估计范围内"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>"延期频繁,基本按期,进度提前"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28:I31">
       <formula1>"达成,未达成"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
-      <formula1>"资源缺乏,资源充足,资源冗余"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>"严重失控,失控,基本受控,受控"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
